--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>105</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>151</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>105</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>151</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>151</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>66.36876849301092</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1615,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>74.74905621875318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,25 +1566,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.78312417100296</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.36876849301091</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1939,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>74.74905621875318</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2016,25 +1890,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.78312417100296</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.6</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.468</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.178</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>193.265</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>217.025</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>264.05</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>326.6180000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>397.0070000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>475.2170000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>537.8840000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>592.7300000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.6950808080809</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>651.2080808080809</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>641.0060606060607</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>192.77</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>266.7715656565657</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>266.7715656565657</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>347.5555656565656</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>404.9755656565657</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>404.9755656565657</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>428.6365656565657</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.8715656565657</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.0565656565657</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626263</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>140.795</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>182.375</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.990292929293</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>258.984292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>258.984292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>331.7492929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.04000000002</v>
+        <v>76155.74719999997</v>
       </c>
       <c r="C2" t="n">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="D2" t="n">
-        <v>9310.695971227427</v>
+        <v>9285.87246355678</v>
       </c>
       <c r="E2" t="n">
-        <v>2390</v>
+        <v>2365</v>
       </c>
       <c r="F2" t="n">
-        <v>14959.76524307418</v>
+        <v>15059.36469884649</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
         <v>151</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5</v>
+        <v>47.20404040404043</v>
       </c>
       <c r="J2" t="n">
-        <v>63</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.36876849301092</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1489,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>74.74905621875318</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>105</v>
+        <v>83.85311702887461</v>
       </c>
       <c r="N3" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.78312417100296</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>29.58312417100293</v>
       </c>
       <c r="O4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>21.3</v>
+        <v>16.00404040404043</v>
       </c>
       <c r="J2" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>71.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>63.3</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>55.4</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.36876849301091</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1813,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>74.74905621875318</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81.59999999999999</v>
+        <v>60.45311702887461</v>
       </c>
       <c r="N3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>31.5</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.78312417100296</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>60.6</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>29.58312417100293</v>
       </c>
       <c r="O4" t="n">
-        <v>73.5</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>31</v>
+        <v>25.14800000000005</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>143.468</v>
+        <v>141.67</v>
       </c>
       <c r="H2" t="n">
-        <v>172.178</v>
+        <v>169.984</v>
       </c>
       <c r="I2" t="n">
-        <v>193.265</v>
+        <v>185.828</v>
       </c>
       <c r="J2" t="n">
-        <v>217.025</v>
+        <v>208.994</v>
       </c>
       <c r="K2" t="n">
-        <v>264.05</v>
+        <v>255.326</v>
       </c>
       <c r="L2" t="n">
-        <v>326.6180000000001</v>
+        <v>317.102</v>
       </c>
       <c r="M2" t="n">
-        <v>397.0070000000001</v>
+        <v>386.6</v>
       </c>
       <c r="N2" t="n">
-        <v>475.2170000000001</v>
+        <v>463.82</v>
       </c>
       <c r="O2" t="n">
-        <v>537.8840000000001</v>
+        <v>525.596</v>
       </c>
       <c r="P2" t="n">
-        <v>592.7300000000001</v>
+        <v>579.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.6950808080809</v>
+        <v>625.982</v>
       </c>
       <c r="R2" t="n">
-        <v>651.2080808080809</v>
+        <v>644</v>
       </c>
       <c r="S2" t="n">
-        <v>641.0060606060607</v>
+        <v>633.4949494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>608.0929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J3" t="n">
-        <v>192.77</v>
+        <v>190.576</v>
       </c>
       <c r="K3" t="n">
-        <v>266.7715656565657</v>
+        <v>272.944</v>
       </c>
       <c r="L3" t="n">
-        <v>266.7715656565657</v>
+        <v>272.944</v>
       </c>
       <c r="M3" t="n">
-        <v>347.5555656565656</v>
+        <v>332.7925858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>404.9755656565657</v>
+        <v>332.7925858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>404.9755656565657</v>
+        <v>404.8645858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>428.6365656565657</v>
+        <v>428.0305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.8715656565657</v>
+        <v>453.7705858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>486.0565656565657</v>
+        <v>484.6585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>140.795</v>
+        <v>139.096</v>
       </c>
       <c r="K4" t="n">
-        <v>182.375</v>
+        <v>139.096</v>
       </c>
       <c r="L4" t="n">
-        <v>198.990292929293</v>
+        <v>139.096</v>
       </c>
       <c r="M4" t="n">
-        <v>258.984292929293</v>
+        <v>198.298</v>
       </c>
       <c r="N4" t="n">
-        <v>258.984292929293</v>
+        <v>227.5852929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>331.7492929292929</v>
+        <v>299.6572929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>373.3292929292929</v>
+        <v>340.8412929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3292929292929</v>
+        <v>361.4332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.05199999999995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76155.74719999997</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
-        <v>29800</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9285.87246355678</v>
+        <v>7066.221906540152</v>
       </c>
       <c r="E2" t="n">
-        <v>2365</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>15059.36469884649</v>
+        <v>17974.29689133427</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>47.20404040404043</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1489,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83.85311702887461</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>29.58312417100293</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>16.00404040404043</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>89.33427201306107</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1813,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>8.230792776247702</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M3" t="n">
-        <v>60.45311702887461</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>29.58312417100293</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.14800000000005</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.67</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>169.984</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>185.828</v>
+        <v>213.852</v>
       </c>
       <c r="J2" t="n">
-        <v>208.994</v>
+        <v>213.852</v>
       </c>
       <c r="K2" t="n">
-        <v>255.326</v>
+        <v>302.2929292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>317.102</v>
+        <v>302.2929292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>386.6</v>
+        <v>302.2929292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>463.82</v>
+        <v>450.7929292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>525.596</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>579.65</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>625.982</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>644</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>633.4949494949495</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929293</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>190.576</v>
+        <v>128.1484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>272.944</v>
+        <v>128.1484848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>272.944</v>
+        <v>276.6484848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>332.7925858585859</v>
+        <v>276.6484848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>332.7925858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>404.8645858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>428.0305858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>453.7705858585859</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>484.6585858585859</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>139.096</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>139.096</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="L4" t="n">
-        <v>139.096</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="M4" t="n">
-        <v>198.298</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>227.5852929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>299.6572929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>340.8412929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>361.4332929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.33427201306107</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3121,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>6.05199999999995</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>175.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8.230792776247702</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540152</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>17974.29689133427</v>
+        <v>16326.78438529687</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>149.834272013061</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>89.33427201306107</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>8.230792776247702</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3831241710019</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2694,49 +2694,49 @@
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313138</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>331.9929292929304</v>
       </c>
       <c r="I2" t="n">
-        <v>213.852</v>
+        <v>334.7649292929304</v>
       </c>
       <c r="J2" t="n">
-        <v>213.852</v>
+        <v>336.5469292929304</v>
       </c>
       <c r="K2" t="n">
-        <v>302.2929292929305</v>
+        <v>357.9309292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>302.2929292929305</v>
+        <v>391.1949292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>302.2929292929305</v>
+        <v>428.6169292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>450.7929292929305</v>
+        <v>470.1969292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>599.2929292929305</v>
+        <v>499.8969292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>599.2929292929305</v>
+        <v>525.4389292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.2929292929305</v>
+        <v>546.8229292929304</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>547.0209292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>128.1484848484852</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>128.1484848484852</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>276.6484848484852</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>276.6484848484852</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>425.1484848484852</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>425.1484848484852</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>425.1484848484852</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>273.8292929292919</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>273.8292929292919</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>273.8292929292919</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>273.8292929292919</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.634272013061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.33427201306107</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3446,22 +3446,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3675,37 +3675,37 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4017,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>175.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4082,13 +4082,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.230792776247702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976702785438</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>16326.78438529686</v>
+        <v>-65.08897444470311</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.63427201306095</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2385,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.230792776247686</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.5831241710018</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>139.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142.572</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>223.653</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>256.917</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>294.3390000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>433.9290000000001</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>463.6290000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>489.1710000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>510.5550000000001</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.424</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.62</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.474</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>268.6812929292918</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>315.8052929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3631,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.43427201306096</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3931,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3943,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.23079277624769</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>-65.08897444470311</v>
+        <v>16326.78438529687</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>149.834272013061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313138</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>331.9929292929304</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>334.7649292929304</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>336.5469292929304</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>357.9309292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>391.1949292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>428.6169292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>470.1969292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>499.8969292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>525.4389292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>546.8229292929304</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>547.0209292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.634272013061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>16326.78438529687</v>
+        <v>14925.8865690799</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>149.834272013061</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>31.43427201306108</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>43.93079277624769</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>150</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.38312417100185</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2694,49 +2694,49 @@
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313138</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>331.9929292929304</v>
+        <v>320.673</v>
       </c>
       <c r="I2" t="n">
-        <v>334.7649292929304</v>
+        <v>320.673</v>
       </c>
       <c r="J2" t="n">
-        <v>336.5469292929304</v>
+        <v>351.7929292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>357.9309292929304</v>
+        <v>401.2929292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>391.1949292929304</v>
+        <v>401.2929292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>428.6169292929304</v>
+        <v>401.2929292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>470.1969292929304</v>
+        <v>549.7929292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>499.8969292929304</v>
+        <v>549.7929292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>525.4389292929304</v>
+        <v>549.7929292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>546.8229292929304</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>547.0209292929304</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>163.56</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>169.5</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>177.42</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>220.9114848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>220.9114848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>220.9114848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>369.4114848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>394.4584848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>422.1784848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>201.18</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>244.74</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>251.67</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>251.67</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>259.59</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>266.52</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>270.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>292.26</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>135.634272013061</v>
+        <v>159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>34.93079277624769</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>40.38312417100185</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.934272013061083</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>80569.87555147437</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>35800</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177227</v>
+        <v>15404.58112947659</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F2" t="n">
-        <v>14925.8865690799</v>
+        <v>12265.06017536948</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,28 +2052,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>150</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>31.43427201306108</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>50</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.1</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>152.7722783389462</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.75715743291538</v>
+      </c>
+      <c r="L3" t="n">
+        <v>171</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Q3" t="n">
         <v>44</v>
       </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>43.93079277624769</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>150</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>28</v>
-      </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>8.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>71.38312417100185</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>191.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>178.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>175.859</v>
       </c>
       <c r="H2" t="n">
-        <v>320.673</v>
+        <v>230.012</v>
       </c>
       <c r="I2" t="n">
-        <v>320.673</v>
+        <v>260.702</v>
       </c>
       <c r="J2" t="n">
-        <v>351.7929292929305</v>
+        <v>293.669</v>
       </c>
       <c r="K2" t="n">
-        <v>401.2929292929305</v>
+        <v>380.393</v>
       </c>
       <c r="L2" t="n">
-        <v>401.2929292929305</v>
+        <v>380.393</v>
       </c>
       <c r="M2" t="n">
-        <v>401.2929292929305</v>
+        <v>495.332</v>
       </c>
       <c r="N2" t="n">
-        <v>549.7929292929305</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="O2" t="n">
-        <v>549.7929292929305</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="P2" t="n">
-        <v>549.7929292929305</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.2929292929305</v>
+        <v>733.3005555555567</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>757.5555555555555</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>718.5656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>631.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>414.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>283.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>204.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>184.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I3" t="n">
-        <v>163.56</v>
+        <v>171.008</v>
       </c>
       <c r="J3" t="n">
-        <v>169.5</v>
+        <v>182.888</v>
       </c>
       <c r="K3" t="n">
-        <v>177.42</v>
+        <v>219.2775858585862</v>
       </c>
       <c r="L3" t="n">
-        <v>220.9114848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="M3" t="n">
-        <v>220.9114848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>220.9114848484852</v>
+        <v>388.5675858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>369.4114848484852</v>
+        <v>402.4275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>394.4584848484852</v>
+        <v>439.5525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>422.1784848484852</v>
+        <v>483.1125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>547.8585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>486.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>237.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>191.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J4" t="n">
-        <v>201.18</v>
+        <v>170.81</v>
       </c>
       <c r="K4" t="n">
-        <v>244.74</v>
+        <v>178.73</v>
       </c>
       <c r="L4" t="n">
-        <v>251.67</v>
+        <v>192.59</v>
       </c>
       <c r="M4" t="n">
-        <v>251.67</v>
+        <v>192.59</v>
       </c>
       <c r="N4" t="n">
-        <v>259.59</v>
+        <v>343.0699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>266.52</v>
+        <v>356.9299999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>270.48</v>
+        <v>364.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>292.26</v>
+        <v>373.3472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>224.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>5.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.93079277624769</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>40.38312417100185</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>14.4</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.934272013061083</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4017,25 +4017,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>67</v>
+        <v>23.77227833894623</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,37 +4079,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20.75715743291538</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.933761861034569</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.87555147437</v>
+        <v>80459.32568105296</v>
       </c>
       <c r="C2" t="n">
-        <v>35800</v>
+        <v>24000</v>
       </c>
       <c r="D2" t="n">
-        <v>15404.58112947659</v>
+        <v>16183.07024786899</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>2235</v>
       </c>
       <c r="F2" t="n">
-        <v>12265.06017536948</v>
+        <v>16507.10868489956</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>34.9444750535652</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>29.6</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>116.1</v>
+        <v>63.7</v>
       </c>
       <c r="N2" t="n">
-        <v>152.7722783389462</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.23376186103457</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>36.75715743291538</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>37.5</v>
+        <v>6.344475053564832</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>47.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>11.3</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>90.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>44.99999999999928</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090909106</v>
+        <v>154.5656565656565</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393939416</v>
+        <v>141.9393939393939</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262626277</v>
+        <v>135.8787878787878</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131313139</v>
+        <v>129.8181818181818</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>123.7575757575757</v>
       </c>
       <c r="G2" t="n">
-        <v>175.859</v>
+        <v>140.5875757575757</v>
       </c>
       <c r="H2" t="n">
-        <v>230.012</v>
+        <v>169.8915757575757</v>
       </c>
       <c r="I2" t="n">
-        <v>260.702</v>
+        <v>189.9885757575757</v>
       </c>
       <c r="J2" t="n">
-        <v>293.669</v>
+        <v>211.1745757575757</v>
       </c>
       <c r="K2" t="n">
-        <v>380.393</v>
+        <v>254.0415757575757</v>
       </c>
       <c r="L2" t="n">
-        <v>380.393</v>
+        <v>310.8675757575757</v>
       </c>
       <c r="M2" t="n">
-        <v>495.332</v>
+        <v>373.9305757575757</v>
       </c>
       <c r="N2" t="n">
-        <v>646.5765555555568</v>
+        <v>443.2305757575757</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5765555555568</v>
+        <v>498.5715757575757</v>
       </c>
       <c r="P2" t="n">
-        <v>646.5765555555568</v>
+        <v>547.6755757575758</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555555567</v>
+        <v>590.477</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555555555</v>
+        <v>608</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565656577</v>
+        <v>596.5858585858585</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292929305</v>
+        <v>532.3434343434343</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111111111</v>
+        <v>421.2323232323232</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626262645</v>
+        <v>329.8181818181818</v>
       </c>
       <c r="W2" t="n">
-        <v>335.838383838385</v>
+        <v>258.10101010101</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313131332</v>
+        <v>212.6464646464646</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919191934</v>
+        <v>180.3232323232322</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252518</v>
+        <v>174.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282828</v>
+        <v>154.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I3" t="n">
-        <v>171.008</v>
+        <v>121.6</v>
       </c>
       <c r="J3" t="n">
-        <v>182.888</v>
+        <v>174.466</v>
       </c>
       <c r="K3" t="n">
-        <v>219.2775858585862</v>
+        <v>244.954</v>
       </c>
       <c r="L3" t="n">
-        <v>388.5675858585863</v>
+        <v>324.253</v>
       </c>
       <c r="M3" t="n">
-        <v>388.5675858585863</v>
+        <v>389.1970000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>388.5675858585863</v>
+        <v>433.9450000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>402.4275858585863</v>
+        <v>495.6220000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>439.5525858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.1125858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484852</v>
+        <v>456.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535346</v>
+        <v>206.9535353535354</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393939379</v>
+        <v>160.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="J4" t="n">
-        <v>170.81</v>
+        <v>121.6</v>
       </c>
       <c r="K4" t="n">
-        <v>178.73</v>
+        <v>123.3652929292926</v>
       </c>
       <c r="L4" t="n">
-        <v>192.59</v>
+        <v>185.0422929292926</v>
       </c>
       <c r="M4" t="n">
-        <v>192.59</v>
+        <v>232.364292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>343.0699999999999</v>
+        <v>302.852292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>356.9299999999999</v>
+        <v>364.529292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>364.85</v>
+        <v>364.529292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3472929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222222222</v>
+        <v>193.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -4017,22 +4017,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.77227833894623</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.75715743291538</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>9992.976702785438</v>
       </c>
       <c r="E2" t="n">
         <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>16326.78438529687</v>
+        <v>16326.78438529686</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1891,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
@@ -1903,7 +2153,7 @@
         <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
         <v>47.6</v>
@@ -1912,10 +2162,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,16 +2302,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>149.834272013061</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>60.3</v>
       </c>
       <c r="K2" t="n">
         <v>21.6</v>
@@ -2073,7 +2323,7 @@
         <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -2085,13 +2335,13 @@
         <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>89.63427201306095</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
         <v>40.8</v>
@@ -2165,7 +2415,7 @@
         <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.230792776247686</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
@@ -2227,7 +2477,7 @@
         <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>37.5831241710018</v>
       </c>
       <c r="O4" t="n">
         <v>47.6</v>
@@ -2236,10 +2486,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2694,49 +2944,49 @@
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313138</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>125.742</v>
       </c>
       <c r="H2" t="n">
-        <v>331.9929292929304</v>
+        <v>139.8</v>
       </c>
       <c r="I2" t="n">
-        <v>334.7649292929304</v>
+        <v>142.572</v>
       </c>
       <c r="J2" t="n">
-        <v>336.5469292929304</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>357.9309292929304</v>
+        <v>223.653</v>
       </c>
       <c r="L2" t="n">
-        <v>391.1949292929304</v>
+        <v>256.917</v>
       </c>
       <c r="M2" t="n">
-        <v>428.6169292929304</v>
+        <v>294.3390000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>470.1969292929304</v>
+        <v>433.9290000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>499.8969292929304</v>
+        <v>463.6290000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>525.4389292929304</v>
+        <v>489.1710000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>546.8229292929304</v>
+        <v>510.5550000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>547.0209292929304</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +3033,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>434.424</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.62</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +3113,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>231.474</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>268.6812929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>315.8052929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3351,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>135.634272013061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3381,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.43427201306096</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3461,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3672,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3681,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3708,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.23079277624769</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,31 +523,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>95.2798535945907</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.20999999697119</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61.20999999999182</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -558,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.20999999999182</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -567,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.380000001767</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>61.21000000048544</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="3">
@@ -682,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>61.21000001816972</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>62.33100000050325</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -727,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.87555147067</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35800</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15404.58112946613</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12265.06017537242</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10178</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>5143</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>5202</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>5090</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1210.492</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1135.292</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1060.852</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-995.224</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-976.696</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-867.213</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-778.232</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-571.674</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-397.1180000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-475.105</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-565.8139999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-703.8409999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-922.8380000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.685</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1159.922</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1155.412</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1140.472</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1142.992</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1288.692</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1378.04</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1345.6</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1296.908</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1139.096</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1063.632</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-878.76</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-810.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.7500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-337.7600000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>21.03000000000004</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>184.73</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>367.8049999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>521.8199999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>470.1449999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>438.9999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>355.43</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>138.9300000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-169.165</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-465.54</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.865</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-931.9400000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.0599999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1102.7</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1197.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1172.1</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1128.96</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-976.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-905.4</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1149.42</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1085.324</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1020.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.0759999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.2270000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-432.9909999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-152.992</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.76200000000011</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>265.146</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>217.1900000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>174.6089999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>68.00099999999995</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-190.245</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-579.056</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-992.952</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1262.288</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1257.064</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1267.912</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1423.328</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1519.616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1496.892</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1455.14</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1305.656</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1235.744</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.999999999999998</v>
+        <v>681.9260000000299</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1913.46400000006</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3155.180000000119</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3928.708000000119</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4040.666000000119</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3562.3</v>
       </c>
       <c r="M2" t="n">
-        <v>8.999999999999996</v>
+        <v>2676.814000000118</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1608.12400000006</v>
       </c>
       <c r="O2" t="n">
-        <v>8.999999999999996</v>
+        <v>641.2140000000295</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.35600000000092</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.3400000000147</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1587.768</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>5848.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5866.302196918682</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>671.9999999982582</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.5020000000294</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.71200000000184</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>458.0100000000149</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.8799999995517</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999995361</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6026.040000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6180.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6182.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>2149.345454545456</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.10000000053551</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>54.70000000228174</v>
+        <v>1196.441999997031</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2583.506000001279</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3000000002794</v>
+        <v>3592.8</v>
       </c>
       <c r="K2" t="n">
-        <v>66.17227833337375</v>
+        <v>3565.561000000906</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2996.486000001302</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7000000006752</v>
+        <v>2034.183000002354</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>685.2860000000595</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2335,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.50000000074505</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2373,10 +1881,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-2.881108684960054e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1125.767999999761</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -2385,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>5202</v>
       </c>
       <c r="J3" t="n">
-        <v>58.25715743053885</v>
+        <v>5194.302196918682</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2403,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>152.6000000011409</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1.741820156122699e-09</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-1.727603375911713e-07</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2462,40 +1970,40 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5202</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5202</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>5202</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>174.4000000002561</v>
+        <v>1208.545454545455</v>
       </c>
       <c r="O4" t="n">
-        <v>39.9831241708182</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>8.89296643435955e-07</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1088.092</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1012.892000000445</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>938.4520000000058</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>899.9441464053513</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>854.2959999999969</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.88700000000551</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>477.4709999999706</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1017.166000000005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1033.012000000006</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1018.091999998233</v>
       </c>
       <c r="S2" t="n">
-        <v>38.59999999974389</v>
+        <v>1020.592000000006</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1166.291999999948</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000465</v>
+        <v>1316.829999999542</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1223.2</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995345</v>
+        <v>1174.508</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1077.885999999515</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>941.2320000000059</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>878.7599999996507</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>810.5</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.4099999980162</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220.3629999999706</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.2279999999982</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881252</v>
+        <v>950.0599998297164</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1102.7</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1197.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1172.1</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1128.96</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>976.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>905.4</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1149.42</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1024.113999980898</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>958.2689999999789</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.0759999999942</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.2169999999852</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1262.288</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1134.664000000011</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1267.91200000008</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1423.328000889297</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1519.616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1496.892000000116</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1455.14</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1305.656</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1113.343999999948</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090908146</v>
+        <v>7968.136511521066</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393937978</v>
+        <v>6945.013279197385</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262625317</v>
+        <v>5997.081966066065</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131312656</v>
+        <v>5088.047474747471</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9999999999995</v>
+        <v>4225.122222222222</v>
       </c>
       <c r="G2" t="n">
-        <v>175.8590000005297</v>
+        <v>4161.6</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0120000027886</v>
+        <v>5346.077579997061</v>
       </c>
       <c r="I2" t="n">
-        <v>230.0120000027886</v>
+        <v>7903.748519998327</v>
       </c>
       <c r="J2" t="n">
-        <v>262.9790000030652</v>
+        <v>11460.620519999</v>
       </c>
       <c r="K2" t="n">
-        <v>328.4895555531052</v>
+        <v>14990.5259099999</v>
       </c>
       <c r="L2" t="n">
-        <v>328.4895555531052</v>
+        <v>17957.04705000119</v>
       </c>
       <c r="M2" t="n">
-        <v>464.8125555537737</v>
+        <v>19970.88822000352</v>
       </c>
       <c r="N2" t="n">
-        <v>616.2825555537737</v>
+        <v>20649.32136000358</v>
       </c>
       <c r="O2" t="n">
-        <v>733.3005555544883</v>
+        <v>20167.02742060967</v>
       </c>
       <c r="P2" t="n">
-        <v>733.3005555544883</v>
+        <v>19139.58701656926</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555544883</v>
+        <v>18096.1405519228</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555552257</v>
+        <v>17067.76479434882</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565655855</v>
+        <v>16036.86378424781</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292928583</v>
+        <v>14858.79105697513</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111109931</v>
+        <v>13528.65974384382</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626261446</v>
+        <v>12293.10418828826</v>
       </c>
       <c r="W2" t="n">
-        <v>335.8383838383128</v>
+        <v>11106.73247111654</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313130133</v>
+        <v>10017.95873374329</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919190974</v>
+        <v>9067.219339803894</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252985</v>
+        <v>6049.387878787885</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282818</v>
+        <v>5230.701010101016</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696970157</v>
+        <v>4480.195959595966</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696970157</v>
+        <v>4161.6</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696970157</v>
+        <v>5276.110319999995</v>
       </c>
       <c r="G3" t="n">
-        <v>151.9999999999989</v>
+        <v>5276.110319999995</v>
       </c>
       <c r="H3" t="n">
-        <v>151.9999999999989</v>
+        <v>5276.110319999995</v>
       </c>
       <c r="I3" t="n">
-        <v>159.9199999999989</v>
+        <v>10426.09032</v>
       </c>
       <c r="J3" t="n">
-        <v>217.5945858562324</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="K3" t="n">
-        <v>233.4345858562324</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="L3" t="n">
-        <v>393.8145858562324</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="M3" t="n">
-        <v>393.8145858562324</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="N3" t="n">
-        <v>393.8145858562324</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="O3" t="n">
-        <v>544.8885858573618</v>
+        <v>15568.44949494949</v>
       </c>
       <c r="P3" t="n">
-        <v>544.8885858573618</v>
+        <v>15568.44949494777</v>
       </c>
       <c r="Q3" t="n">
-        <v>544.8885858573618</v>
+        <v>15345.86060605891</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858573618</v>
+        <v>14445.63030302861</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484603</v>
+        <v>13485.97373737551</v>
       </c>
       <c r="T3" t="n">
-        <v>355.535353535329</v>
+        <v>12372.13535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>355.535353535329</v>
+        <v>11162.43838383838</v>
       </c>
       <c r="V3" t="n">
-        <v>355.535353535329</v>
+        <v>9978.49898989899</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474972</v>
+        <v>8838.135353535354</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474972</v>
+        <v>7851.569696969697</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535813</v>
+        <v>6937.024242424242</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.393939394033</v>
+        <v>7547.131313113365</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696970163</v>
+        <v>6512.67272727315</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696970163</v>
+        <v>5544.724242424687</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696970163</v>
+        <v>4568.889898990344</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696970163</v>
+        <v>4161.6</v>
       </c>
       <c r="G4" t="n">
-        <v>151.9999999999995</v>
+        <v>4161.6</v>
       </c>
       <c r="H4" t="n">
-        <v>151.9999999999995</v>
+        <v>4161.6</v>
       </c>
       <c r="I4" t="n">
-        <v>151.9999999999995</v>
+        <v>9311.580000000002</v>
       </c>
       <c r="J4" t="n">
-        <v>153.9799999999996</v>
+        <v>9311.580000000002</v>
       </c>
       <c r="K4" t="n">
-        <v>161.8999999999996</v>
+        <v>14461.56</v>
       </c>
       <c r="L4" t="n">
-        <v>168.8299999999996</v>
+        <v>19611.54</v>
       </c>
       <c r="M4" t="n">
-        <v>168.8299999999996</v>
+        <v>19611.54</v>
       </c>
       <c r="N4" t="n">
-        <v>341.4860000002531</v>
+        <v>20808</v>
       </c>
       <c r="O4" t="n">
-        <v>381.0692929293631</v>
+        <v>20808</v>
       </c>
       <c r="P4" t="n">
-        <v>388.9892929293631</v>
+        <v>20808</v>
       </c>
       <c r="Q4" t="n">
-        <v>392.9492929293631</v>
+        <v>19532.96161616162</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929293631</v>
+        <v>18386.83636363636</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929293631</v>
+        <v>17106.11717171716</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616162318</v>
+        <v>15668.41212119424</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616162318</v>
+        <v>14133.44646462858</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616162318</v>
+        <v>12621.43434341634</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616162318</v>
+        <v>11151.59595957796</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616162318</v>
+        <v>9832.751515133514</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222223158</v>
+        <v>8708.161616143667</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>69.57227832967175</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6918,13 +6426,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52.25715743053885</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -6933,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7007,10 +6515,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>32.9831241708182</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7156,31 +6664,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>6.042000000000007</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>46.58800000000003</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.07600000000006</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>124.2220000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>129.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>112.9360000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>80.10400000000003</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>40.43200000000002</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.560000000000002</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7189,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.700000000186265</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7257,19 +6765,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.02</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3373349.258229499</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1028600</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>433156.2392694376</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>182760</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.400000000256114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.20000000228174</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.8000000002794</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.60000000370201</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.800000000279397</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.60000000114087</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.217248937875027e-16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>750186.4546016693</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 8.xlsx
+++ b/model/Output Files/Year 8.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,31 +524,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>122.4</v>
+        <v>101.5753785909728</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>95.2798535945907</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>122.4</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="H2" t="n">
-        <v>61.20999999697119</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.20999999999182</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -556,43 +557,43 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.20999999999182</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.380000001767</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>61.20999999999185</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>61.21000000048544</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -680,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>61.21000001816972</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>62.33100000050325</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -722,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R4" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -740,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>61.74349999908554</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3383257.301849113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1035800</v>
+      </c>
+      <c r="D2" t="n">
+        <v>427764.7717792839</v>
+      </c>
+      <c r="E2" t="n">
+        <v>183040</v>
+      </c>
+      <c r="F2" t="n">
+        <v>753579.5476602942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10178</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5143</v>
+        <v>5179</v>
       </c>
       <c r="C4" t="n">
-        <v>5202</v>
+        <v>5250</v>
       </c>
       <c r="D4" t="n">
-        <v>5090</v>
+        <v>5177</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,76 +1264,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1210.492</v>
+        <v>-1210.721</v>
       </c>
       <c r="C2" t="n">
-        <v>-1135.292</v>
+        <v>-1135.526</v>
       </c>
       <c r="D2" t="n">
-        <v>-1060.852</v>
+        <v>-1061.131</v>
       </c>
       <c r="E2" t="n">
-        <v>-995.224</v>
+        <v>-1030.527</v>
       </c>
       <c r="F2" t="n">
-        <v>-976.696</v>
+        <v>-977.0129999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-867.213</v>
+        <v>-858.5185</v>
       </c>
       <c r="H2" t="n">
-        <v>-778.232</v>
+        <v>-752.734</v>
       </c>
       <c r="I2" t="n">
-        <v>-571.674</v>
+        <v>-528.9570000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-397.1180000000002</v>
+        <v>-344.1900000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>-475.105</v>
+        <v>-420.9895</v>
       </c>
       <c r="L2" t="n">
-        <v>-565.8139999999999</v>
+        <v>-517.3969999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-703.8409999999999</v>
+        <v>-667.8534999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>-922.8380000000001</v>
+        <v>-901.577</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.685</v>
+        <v>-1110.9555</v>
       </c>
       <c r="P2" t="n">
-        <v>-1159.922</v>
+        <v>-1160.223</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1155.412</v>
+        <v>-1190.641</v>
       </c>
       <c r="R2" t="n">
-        <v>-1140.472</v>
+        <v>-1140.766</v>
       </c>
       <c r="S2" t="n">
-        <v>-1142.992</v>
+        <v>-1143.271</v>
       </c>
       <c r="T2" t="n">
-        <v>-1288.692</v>
+        <v>-1288.976</v>
       </c>
       <c r="U2" t="n">
-        <v>-1378.04</v>
+        <v>-1378.32</v>
       </c>
       <c r="V2" t="n">
-        <v>-1345.6</v>
+        <v>-1345.925</v>
       </c>
       <c r="W2" t="n">
-        <v>-1296.908</v>
+        <v>-1297.169</v>
       </c>
       <c r="X2" t="n">
-        <v>-1139.096</v>
+        <v>-1139.363</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1063.632</v>
+        <v>-1063.746</v>
       </c>
     </row>
     <row r="3">
@@ -1224,73 +1341,73 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-878.76</v>
+        <v>-878.75</v>
       </c>
       <c r="C3" t="n">
         <v>-810.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-743</v>
+        <v>-743.05</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.7500000000001</v>
+        <v>-651.335</v>
       </c>
       <c r="F3" t="n">
-        <v>-337.7600000000001</v>
+        <v>-316.2860000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>21.03000000000004</v>
+        <v>68.47300000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>184.73</v>
+        <v>253.6130000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>367.8049999999998</v>
+        <v>452.7854999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>521.8199999999999</v>
+        <v>616.9219999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>470.1449999999999</v>
+        <v>568.6924999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>438.9999999999999</v>
+        <v>536.3699999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>355.43</v>
+        <v>443.8429999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>138.9300000000001</v>
+        <v>213.6930000000002</v>
       </c>
       <c r="O3" t="n">
-        <v>-169.165</v>
+        <v>-113.7315</v>
       </c>
       <c r="P3" t="n">
-        <v>-465.54</v>
+        <v>-435.024</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.865</v>
+        <v>-846.9715</v>
       </c>
       <c r="R3" t="n">
-        <v>-931.9400000000001</v>
+        <v>-932.024</v>
       </c>
       <c r="S3" t="n">
-        <v>-950.0599999999999</v>
+        <v>-950.1999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>-1102.7</v>
+        <v>-1102.85</v>
       </c>
       <c r="U3" t="n">
-        <v>-1197.6</v>
+        <v>-1197.75</v>
       </c>
       <c r="V3" t="n">
-        <v>-1172.1</v>
+        <v>-1172.3</v>
       </c>
       <c r="W3" t="n">
-        <v>-1128.96</v>
+        <v>-1129.1</v>
       </c>
       <c r="X3" t="n">
-        <v>-976.7</v>
+        <v>-976.85</v>
       </c>
       <c r="Y3" t="n">
         <v>-905.4</v>
@@ -1301,76 +1418,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1149.42</v>
+        <v>-1149.605</v>
       </c>
       <c r="C4" t="n">
-        <v>-1085.324</v>
+        <v>-1085.522</v>
       </c>
       <c r="D4" t="n">
-        <v>-1020.6</v>
+        <v>-1020.85</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.0759999999999</v>
+        <v>-1001.358</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.2270000000001</v>
+        <v>-855.7885</v>
       </c>
       <c r="G4" t="n">
-        <v>-432.9909999999999</v>
+        <v>-397.0255</v>
       </c>
       <c r="H4" t="n">
-        <v>-152.992</v>
+        <v>-86.68099999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>85.76200000000011</v>
+        <v>171.6140000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>265.146</v>
+        <v>362.332</v>
       </c>
       <c r="K4" t="n">
-        <v>217.1900000000001</v>
+        <v>318.869</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6089999999999</v>
+        <v>274.0424999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>68.00099999999995</v>
+        <v>157.3114999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-190.245</v>
+        <v>-116.8835</v>
       </c>
       <c r="O4" t="n">
-        <v>-579.056</v>
+        <v>-530.6200000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-992.952</v>
+        <v>-976.3099999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1262.288</v>
+        <v>-1297.594</v>
       </c>
       <c r="R4" t="n">
-        <v>-1257.064</v>
+        <v>-1257.442</v>
       </c>
       <c r="S4" t="n">
-        <v>-1267.912</v>
+        <v>-1268.281</v>
       </c>
       <c r="T4" t="n">
-        <v>-1423.328</v>
+        <v>-1423.709</v>
       </c>
       <c r="U4" t="n">
-        <v>-1519.616</v>
+        <v>-1519.998</v>
       </c>
       <c r="V4" t="n">
-        <v>-1496.892</v>
+        <v>-1497.326</v>
       </c>
       <c r="W4" t="n">
-        <v>-1455.14</v>
+        <v>-1455.515</v>
       </c>
       <c r="X4" t="n">
-        <v>-1305.656</v>
+        <v>-1306.043</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1235.744</v>
+        <v>-1235.982</v>
       </c>
     </row>
   </sheetData>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.9260000000299</v>
+        <v>683.8020000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1913.46400000006</v>
+        <v>1918.728000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>3155.180000000119</v>
+        <v>3163.860000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3928.708000000119</v>
+        <v>3939.516000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4040.666000000119</v>
+        <v>4051.782</v>
       </c>
       <c r="L2" t="n">
-        <v>3562.3</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2676.814000000118</v>
+        <v>2684.178000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1608.12400000006</v>
+        <v>1612.548</v>
       </c>
       <c r="O2" t="n">
-        <v>641.2140000000295</v>
+        <v>642.9780000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20.35600000000092</v>
+        <v>20.412</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3400000000147</v>
+        <v>306.1800000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1587.768</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
         <v>504</v>
@@ -1569,34 +1686,34 @@
         <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>5848.8</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5866.302196918682</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>798</v>
+        <v>6048</v>
       </c>
       <c r="L3" t="n">
-        <v>798</v>
+        <v>2350.679292721788</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>756</v>
+        <v>5531.652000000001</v>
       </c>
       <c r="O3" t="n">
         <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>671.9999999982582</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.5020000000294</v>
+        <v>602.1540000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>40.71200000000184</v>
+        <v>40.82400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>458.0100000000149</v>
+        <v>459.2700000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>677.8799999995517</v>
+        <v>2704.590000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>805.5599999995361</v>
+        <v>4898.880000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>6026.040000000001</v>
+        <v>6074.04</v>
       </c>
       <c r="J4" t="n">
-        <v>850.9200000000001</v>
+        <v>1200.58696969697</v>
       </c>
       <c r="K4" t="n">
-        <v>6180.6</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6182.280000000001</v>
+        <v>6230.28</v>
       </c>
       <c r="M4" t="n">
         <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>2149.345454545456</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
         <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.26</v>
+        <v>1017.95</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1196.441999997031</v>
+        <v>1165.994000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>2583.506000001279</v>
+        <v>2634.903</v>
       </c>
       <c r="J2" t="n">
-        <v>3592.8</v>
+        <v>3595.326000000242</v>
       </c>
       <c r="K2" t="n">
-        <v>3565.561000000906</v>
+        <v>3630.7925</v>
       </c>
       <c r="L2" t="n">
-        <v>2996.486000001302</v>
+        <v>3054.703000000237</v>
       </c>
       <c r="M2" t="n">
-        <v>2034.183000002354</v>
+        <v>2016.324500002045</v>
       </c>
       <c r="N2" t="n">
-        <v>685.2860000000595</v>
+        <v>710.9710000014528</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1881,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.881108684960054e-09</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1125.767999999761</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1893,28 +2010,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5202</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5194.302196918682</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1552.679292721789</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4775.652</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.741820156122699e-09</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1923,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.727603375911713e-07</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1964,28 +2081,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2026.71</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4093.32</v>
       </c>
       <c r="I4" t="n">
-        <v>5202</v>
+        <v>5250</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>349.6669696969695</v>
       </c>
       <c r="K4" t="n">
-        <v>5202</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5202</v>
+        <v>5250</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1208.545454545455</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2003,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.89296643435955e-07</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1088.092</v>
+        <v>1099.721</v>
       </c>
       <c r="C2" t="n">
-        <v>1012.892000000445</v>
+        <v>1033.950621409027</v>
       </c>
       <c r="D2" t="n">
-        <v>938.4520000000058</v>
+        <v>950.1310000000036</v>
       </c>
       <c r="E2" t="n">
-        <v>899.9441464053513</v>
+        <v>919.5269999999431</v>
       </c>
       <c r="F2" t="n">
-        <v>854.2959999999969</v>
+        <v>866.0129999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>62.88700000000551</v>
+        <v>119.2065000000053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>477.4709999999706</v>
+        <v>356.9774999963641</v>
       </c>
       <c r="P2" t="n">
-        <v>1017.166000000005</v>
+        <v>1028.811</v>
       </c>
       <c r="Q2" t="n">
-        <v>1033.012000000006</v>
+        <v>1079.640999999578</v>
       </c>
       <c r="R2" t="n">
-        <v>1018.091999998233</v>
+        <v>1029.766</v>
       </c>
       <c r="S2" t="n">
-        <v>1020.592000000006</v>
+        <v>1032.271</v>
       </c>
       <c r="T2" t="n">
-        <v>1166.291999999948</v>
+        <v>1177.976000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>1316.829999999542</v>
+        <v>1267.319999999709</v>
       </c>
       <c r="V2" t="n">
-        <v>1223.2</v>
+        <v>1345.925</v>
       </c>
       <c r="W2" t="n">
-        <v>1174.508</v>
+        <v>1186.169</v>
       </c>
       <c r="X2" t="n">
-        <v>1077.885999999515</v>
+        <v>1028.363</v>
       </c>
       <c r="Y2" t="n">
-        <v>941.2320000000059</v>
+        <v>952.7459999997081</v>
       </c>
     </row>
     <row r="3">
@@ -2196,16 +2313,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>878.7599999996507</v>
+        <v>878.75</v>
       </c>
       <c r="C3" t="n">
         <v>810.5</v>
       </c>
       <c r="D3" t="n">
-        <v>743</v>
+        <v>743.05</v>
       </c>
       <c r="E3" t="n">
-        <v>315.4099999980162</v>
+        <v>345.154999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>220.3629999999706</v>
+        <v>244.8175</v>
       </c>
       <c r="R3" t="n">
-        <v>891.2279999999982</v>
+        <v>891.2</v>
       </c>
       <c r="S3" t="n">
-        <v>950.0599998297164</v>
+        <v>950.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1102.7</v>
+        <v>1102.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1197.6</v>
+        <v>1197.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1172.1</v>
+        <v>1172.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1128.96</v>
+        <v>1129.1</v>
       </c>
       <c r="X3" t="n">
-        <v>976.7</v>
+        <v>976.85</v>
       </c>
       <c r="Y3" t="n">
         <v>905.4</v>
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1149.42</v>
+        <v>1149.605</v>
       </c>
       <c r="C4" t="n">
-        <v>1024.113999980898</v>
+        <v>1085.522</v>
       </c>
       <c r="D4" t="n">
-        <v>958.2689999999789</v>
+        <v>1020.85</v>
       </c>
       <c r="E4" t="n">
-        <v>966.0759999999942</v>
+        <v>1001.358</v>
       </c>
       <c r="F4" t="n">
-        <v>403.2169999999852</v>
+        <v>285.5184999994374</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1262.288</v>
+        <v>1186.593999999652</v>
       </c>
       <c r="R4" t="n">
-        <v>1134.664000000011</v>
+        <v>1257.442</v>
       </c>
       <c r="S4" t="n">
-        <v>1267.91200000008</v>
+        <v>1268.281</v>
       </c>
       <c r="T4" t="n">
-        <v>1423.328000889297</v>
+        <v>1423.709000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1519.616</v>
+        <v>1519.998</v>
       </c>
       <c r="V4" t="n">
-        <v>1496.892000000116</v>
+        <v>1497.325999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>1455.14</v>
+        <v>1393.771500000914</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.656</v>
+        <v>1306.043</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.343999999948</v>
+        <v>1235.982</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7968.136511521066</v>
+        <v>8128.109213534057</v>
       </c>
       <c r="C2" t="n">
-        <v>6945.013279197385</v>
+        <v>7083.714646455771</v>
       </c>
       <c r="D2" t="n">
-        <v>5997.081966066065</v>
+        <v>6123.986363629013</v>
       </c>
       <c r="E2" t="n">
-        <v>5088.047474747471</v>
+        <v>5195.171212115186</v>
       </c>
       <c r="F2" t="n">
-        <v>4225.122222222222</v>
+        <v>4320.410606056659</v>
       </c>
       <c r="G2" t="n">
-        <v>4161.6</v>
+        <v>4200</v>
       </c>
       <c r="H2" t="n">
-        <v>5346.077579997061</v>
+        <v>5354.33405999902</v>
       </c>
       <c r="I2" t="n">
-        <v>7903.748519998327</v>
+        <v>7962.888030000498</v>
       </c>
       <c r="J2" t="n">
-        <v>11460.620519999</v>
+        <v>11522.26077000074</v>
       </c>
       <c r="K2" t="n">
-        <v>14990.5259099999</v>
+        <v>15116.74534500074</v>
       </c>
       <c r="L2" t="n">
-        <v>17957.04705000119</v>
+        <v>18140.90131500097</v>
       </c>
       <c r="M2" t="n">
-        <v>19970.88822000352</v>
+        <v>20137.06257000173</v>
       </c>
       <c r="N2" t="n">
-        <v>20649.32136000358</v>
+        <v>20840.92386000444</v>
       </c>
       <c r="O2" t="n">
-        <v>20167.02742060967</v>
+        <v>20480.34052667312</v>
       </c>
       <c r="P2" t="n">
-        <v>19139.58701656926</v>
+        <v>19441.13749637175</v>
       </c>
       <c r="Q2" t="n">
-        <v>18096.1405519228</v>
+        <v>18350.59103172366</v>
       </c>
       <c r="R2" t="n">
-        <v>17067.76479434882</v>
+        <v>17310.42335495803</v>
       </c>
       <c r="S2" t="n">
-        <v>16036.86378424781</v>
+        <v>16267.72537516005</v>
       </c>
       <c r="T2" t="n">
-        <v>14858.79105697513</v>
+        <v>15077.8506276853</v>
       </c>
       <c r="U2" t="n">
-        <v>13528.65974384382</v>
+        <v>13797.72941556017</v>
       </c>
       <c r="V2" t="n">
-        <v>12293.10418828826</v>
+        <v>12438.20921354418</v>
       </c>
       <c r="W2" t="n">
-        <v>11106.73247111654</v>
+        <v>11240.0587084872</v>
       </c>
       <c r="X2" t="n">
-        <v>10017.95873374329</v>
+        <v>10201.30820342971</v>
       </c>
       <c r="Y2" t="n">
-        <v>9067.219339803894</v>
+        <v>9238.938506461833</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6049.387878787885</v>
+        <v>11455.33585858383</v>
       </c>
       <c r="C3" t="n">
-        <v>5230.701010101016</v>
+        <v>10636.64898989516</v>
       </c>
       <c r="D3" t="n">
-        <v>4480.195959595966</v>
+        <v>9886.093434343435</v>
       </c>
       <c r="E3" t="n">
-        <v>4161.6</v>
+        <v>9537.45202020543</v>
       </c>
       <c r="F3" t="n">
-        <v>5276.110319999995</v>
+        <v>9537.45202020543</v>
       </c>
       <c r="G3" t="n">
-        <v>5276.110319999995</v>
+        <v>9537.452020202158</v>
       </c>
       <c r="H3" t="n">
-        <v>5276.110319999995</v>
+        <v>9537.45202020543</v>
       </c>
       <c r="I3" t="n">
-        <v>10426.09032</v>
+        <v>9537.452020204017</v>
       </c>
       <c r="J3" t="n">
-        <v>15568.44949494949</v>
+        <v>9537.452020202527</v>
       </c>
       <c r="K3" t="n">
-        <v>15568.44949494949</v>
+        <v>14734.95202020062</v>
       </c>
       <c r="L3" t="n">
-        <v>15568.44949494949</v>
+        <v>16272.10452</v>
       </c>
       <c r="M3" t="n">
-        <v>15568.44949494949</v>
+        <v>16272.10452</v>
       </c>
       <c r="N3" t="n">
-        <v>15568.44949494949</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>15568.44949494949</v>
+        <v>20999.99999999497</v>
       </c>
       <c r="P3" t="n">
-        <v>15568.44949494777</v>
+        <v>21000</v>
       </c>
       <c r="Q3" t="n">
-        <v>15345.86060605891</v>
+        <v>20752.7095959596</v>
       </c>
       <c r="R3" t="n">
-        <v>14445.63030302861</v>
+        <v>19852.50757574802</v>
       </c>
       <c r="S3" t="n">
-        <v>13485.97373737551</v>
+        <v>18892.70959594871</v>
       </c>
       <c r="T3" t="n">
-        <v>12372.13535353535</v>
+        <v>17778.71969695744</v>
       </c>
       <c r="U3" t="n">
-        <v>11162.43838383838</v>
+        <v>16568.87121210762</v>
       </c>
       <c r="V3" t="n">
-        <v>9978.49898989899</v>
+        <v>15384.7297979798</v>
       </c>
       <c r="W3" t="n">
-        <v>8838.135353535354</v>
+        <v>14244.22474747475</v>
       </c>
       <c r="X3" t="n">
-        <v>7851.569696969697</v>
+        <v>13257.50757575757</v>
       </c>
       <c r="Y3" t="n">
-        <v>6937.024242424242</v>
+        <v>12342.96212121212</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7547.131313113365</v>
+        <v>7627.52373737317</v>
       </c>
       <c r="C4" t="n">
-        <v>6512.67272727315</v>
+        <v>6531.036868678316</v>
       </c>
       <c r="D4" t="n">
-        <v>5544.724242424687</v>
+        <v>5499.875252524685</v>
       </c>
       <c r="E4" t="n">
-        <v>4568.889898990344</v>
+        <v>4488.402525248661</v>
       </c>
       <c r="F4" t="n">
-        <v>4161.6</v>
+        <v>4200</v>
       </c>
       <c r="G4" t="n">
-        <v>4161.6</v>
+        <v>6206.442899997035</v>
       </c>
       <c r="H4" t="n">
-        <v>4161.6</v>
+        <v>10258.82969999852</v>
       </c>
       <c r="I4" t="n">
-        <v>9311.580000000002</v>
+        <v>15456.3297</v>
       </c>
       <c r="J4" t="n">
-        <v>9311.580000000002</v>
+        <v>15802.5</v>
       </c>
       <c r="K4" t="n">
-        <v>14461.56</v>
+        <v>15802.49999999869</v>
       </c>
       <c r="L4" t="n">
-        <v>19611.54</v>
+        <v>20999.99999999715</v>
       </c>
       <c r="M4" t="n">
-        <v>19611.54</v>
+        <v>20999.99999999596</v>
       </c>
       <c r="N4" t="n">
-        <v>20808</v>
+        <v>20999.99999998971</v>
       </c>
       <c r="O4" t="n">
-        <v>20808</v>
+        <v>20999.99999999121</v>
       </c>
       <c r="P4" t="n">
-        <v>20808</v>
+        <v>20999.99999999764</v>
       </c>
       <c r="Q4" t="n">
-        <v>19532.96161616162</v>
+        <v>19801.42020202056</v>
       </c>
       <c r="R4" t="n">
-        <v>18386.83636363636</v>
+        <v>18531.27676767712</v>
       </c>
       <c r="S4" t="n">
-        <v>17106.11717171716</v>
+        <v>17250.1848484852</v>
       </c>
       <c r="T4" t="n">
-        <v>15668.41212119424</v>
+        <v>15812.0949494953</v>
       </c>
       <c r="U4" t="n">
-        <v>14133.44646462858</v>
+        <v>14276.74343434292</v>
       </c>
       <c r="V4" t="n">
-        <v>12621.43434341634</v>
+        <v>12764.29292929328</v>
       </c>
       <c r="W4" t="n">
-        <v>11151.59595957796</v>
+        <v>11356.44292929055</v>
       </c>
       <c r="X4" t="n">
-        <v>9832.751515133514</v>
+        <v>10037.20757575389</v>
       </c>
       <c r="Y4" t="n">
-        <v>8708.161616143667</v>
+        <v>8788.740909085904</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>146.3700000011595</v>
+        <v>146.083</v>
       </c>
       <c r="J2" t="n">
-        <v>311.1</v>
+        <v>310.49</v>
       </c>
       <c r="K2" t="n">
-        <v>349.095000000787</v>
+        <v>348.4105</v>
       </c>
       <c r="L2" t="n">
-        <v>268.7700000011828</v>
+        <v>268.243</v>
       </c>
       <c r="M2" t="n">
-        <v>116.5350000022445</v>
+        <v>116.3065000000001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6664,31 +6781,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.042000000000007</v>
+        <v>6.36</v>
       </c>
       <c r="H2" t="n">
-        <v>46.58800000000003</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>95.07600000000006</v>
+        <v>100.0799999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>124.2220000000001</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>129.2</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>112.9360000000001</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>80.10400000000003</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>40.43200000000002</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.560000000000002</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.02</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3373349.258229499</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1028600</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>433156.2392694376</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182760</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>750186.4546016693</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
